--- a/www.eia.gov/electricity/monthly/xls/table_a_3_bcontinued.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_a_3_bcontinued.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
     <t>Table A.3.B. Relative Standard Error (Percent) for Net Generation by Fuel Type:</t>
   </si>
   <si>
-    <t>Independent Power Producers by Census Division and State, Year-to-Date through October 2016 (Continued)</t>
+    <t>Independent Power Producers by Census Division and State, Year-to-Date through November 2016 (Continued)</t>
   </si>
   <si>
     <t>Census Region and State</t>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="6">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F4" s="6">
         <v>4</v>
@@ -1236,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I4" s="6">
         <v>1</v>
@@ -1256,16 +1256,16 @@
         <v>0</v>
       </c>
       <c r="E5" s="8">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="F5" s="8">
+        <v>5</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
         <v>7</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8">
-        <v>5</v>
       </c>
       <c r="I5" s="8">
         <v>1</v>
@@ -1288,16 +1288,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="8">
         <v>0</v>
       </c>
       <c r="H6" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I6" s="8">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1314,19 +1314,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F7" s="8">
+        <v>8</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
         <v>7</v>
       </c>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8">
-        <v>4</v>
-      </c>
       <c r="I7" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1346,13 +1346,13 @@
         <v>0</v>
       </c>
       <c r="F8" s="8">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G8" s="8">
         <v>0</v>
       </c>
       <c r="H8" s="8">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="I8" s="8">
         <v>2</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="F9" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G9" s="8">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1401,10 +1401,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="8">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F10" s="8">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G10" s="8">
         <v>0</v>
@@ -1413,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="8">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F11" s="6">
         <v>2</v>
@@ -1439,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I11" s="6">
         <v>1</v>
@@ -1459,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F12" s="8">
         <v>8</v>
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I12" s="8">
         <v>1</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I13" s="8">
         <v>1</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="8">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F14" s="8">
         <v>2</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F15" s="6">
         <v>1</v>
@@ -1555,10 +1555,10 @@
         <v>0</v>
       </c>
       <c r="H15" s="6">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I15" s="6">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="8">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F16" s="8">
         <v>1</v>
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="8">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F17" s="8">
         <v>1</v>
@@ -1636,13 +1636,13 @@
         <v>0</v>
       </c>
       <c r="F18" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G18" s="8">
         <v>0</v>
       </c>
       <c r="H18" s="8">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I18" s="8">
         <v>1</v>
@@ -1662,19 +1662,19 @@
         <v>0</v>
       </c>
       <c r="E19" s="8">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F19" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G19" s="8">
         <v>0</v>
       </c>
       <c r="H19" s="8">
-        <v>0</v>
+        <v>1819</v>
       </c>
       <c r="I19" s="8">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1691,10 +1691,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="8">
-        <v>139</v>
+        <v>201</v>
       </c>
       <c r="F20" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G20" s="8">
         <v>0</v>
@@ -1720,16 +1720,16 @@
         <v>0</v>
       </c>
       <c r="E21" s="6">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F21" s="6">
-        <v>1</v>
+        <v>0.49</v>
       </c>
       <c r="G21" s="6">
         <v>0</v>
       </c>
       <c r="H21" s="6">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I21" s="6">
         <v>1</v>
@@ -1778,10 +1778,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="8">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F23" s="8">
-        <v>0.28999999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="G23" s="8">
         <v>0</v>
@@ -1790,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="8">
-        <v>0.45</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="8">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F24" s="8">
         <v>2</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="8">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I24" s="8">
         <v>2</v>
@@ -1836,19 +1836,19 @@
         <v>0</v>
       </c>
       <c r="E25" s="8">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F25" s="8">
+        <v>2</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0</v>
+      </c>
+      <c r="H25" s="8">
+        <v>0</v>
+      </c>
+      <c r="I25" s="8">
         <v>3</v>
-      </c>
-      <c r="G25" s="8">
-        <v>0</v>
-      </c>
-      <c r="H25" s="8">
-        <v>0</v>
-      </c>
-      <c r="I25" s="8">
-        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1865,10 +1865,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F26" s="8">
-        <v>0.45</v>
+        <v>0.41</v>
       </c>
       <c r="G26" s="8">
         <v>0</v>
@@ -1877,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="8">
-        <v>0.45</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="8">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
       <c r="G27" s="8">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="8">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1952,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F29" s="6">
         <v>3</v>
@@ -1981,10 +1981,10 @@
         <v>0</v>
       </c>
       <c r="E30" s="8">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F30" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G30" s="8">
         <v>0</v>
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="8">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="8">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F32" s="8">
         <v>6</v>
@@ -2048,10 +2048,10 @@
         <v>0</v>
       </c>
       <c r="H32" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I32" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2068,10 +2068,10 @@
         <v>0</v>
       </c>
       <c r="E33" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F33" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G33" s="8">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="8">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F34" s="8">
         <v>3</v>
@@ -2138,7 +2138,7 @@
         <v>20</v>
       </c>
       <c r="I35" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2155,19 +2155,19 @@
         <v>0</v>
       </c>
       <c r="E36" s="8">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="F36" s="8">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G36" s="8">
         <v>0</v>
       </c>
       <c r="H36" s="8">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="I36" s="8">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2187,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G37" s="8">
         <v>0</v>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="8">
-        <v>1</v>
+        <v>0.47</v>
       </c>
       <c r="G38" s="8">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F39" s="6">
         <v>7</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="6">
-        <v>0.31</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2274,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G40" s="8">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="8">
-        <v>0.28999999999999998</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2303,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="8">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="G41" s="8">
         <v>0</v>
@@ -2312,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="8">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="8">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G42" s="8">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="8">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2358,11 +2358,11 @@
         <v>0</v>
       </c>
       <c r="E43" s="8">
+        <v>29</v>
+      </c>
+      <c r="F43" s="8">
         <v>20</v>
       </c>
-      <c r="F43" s="8">
-        <v>19</v>
-      </c>
       <c r="G43" s="8">
         <v>0</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2387,19 +2387,19 @@
         <v>0</v>
       </c>
       <c r="E44" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F44" s="6">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="G44" s="6">
         <v>0</v>
       </c>
       <c r="H44" s="6">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="I44" s="6">
-        <v>0.17</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2416,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F45" s="8">
         <v>32</v>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="8">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G46" s="8">
         <v>0</v>
@@ -2457,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="8">
-        <v>1</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="8">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="G47" s="8">
         <v>0</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="8">
-        <v>0.28999999999999998</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2503,19 +2503,19 @@
         <v>0</v>
       </c>
       <c r="E48" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F48" s="8">
-        <v>0.39</v>
+        <v>0.43</v>
       </c>
       <c r="G48" s="8">
         <v>0</v>
       </c>
       <c r="H48" s="8">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="I48" s="8">
-        <v>0.19</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="H49" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I49" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2561,10 +2561,10 @@
         <v>0</v>
       </c>
       <c r="E50" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F50" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G50" s="8">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="8">
-        <v>0.31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2590,16 +2590,16 @@
         <v>0</v>
       </c>
       <c r="E51" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F51" s="8">
-        <v>1</v>
+        <v>0.41</v>
       </c>
       <c r="G51" s="8">
         <v>0</v>
       </c>
       <c r="H51" s="8">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="I51" s="8">
         <v>1</v>
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="C52" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D52" s="8">
         <v>0</v>
@@ -2622,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G52" s="8">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2651,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G53" s="8">
         <v>0</v>
@@ -2677,10 +2677,10 @@
         <v>0</v>
       </c>
       <c r="E54" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G54" s="8">
         <v>0</v>
@@ -2700,13 +2700,13 @@
         <v>0</v>
       </c>
       <c r="C55" s="8">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D55" s="8">
         <v>0</v>
       </c>
       <c r="E55" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F55" s="8">
         <v>2</v>
@@ -2744,10 +2744,10 @@
         <v>0</v>
       </c>
       <c r="H56" s="8">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="I56" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="8">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2802,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="6">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I58" s="6">
         <v>1</v>
@@ -2825,13 +2825,13 @@
         <v>1</v>
       </c>
       <c r="F59" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G59" s="8">
         <v>0</v>
       </c>
       <c r="H59" s="8">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I59" s="8">
         <v>1</v>
@@ -2851,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="E60" s="8">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F60" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G60" s="8">
         <v>0</v>
       </c>
       <c r="H60" s="8">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="I60" s="8">
         <v>2</v>
@@ -2889,10 +2889,10 @@
         <v>0</v>
       </c>
       <c r="H61" s="8">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I61" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2909,7 +2909,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="6">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F62" s="6">
         <v>5</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -2941,16 +2941,16 @@
         <v>0</v>
       </c>
       <c r="F63" s="8">
+        <v>41</v>
+      </c>
+      <c r="G63" s="8">
+        <v>0</v>
+      </c>
+      <c r="H63" s="8">
+        <v>0</v>
+      </c>
+      <c r="I63" s="8">
         <v>46</v>
-      </c>
-      <c r="G63" s="8">
-        <v>0</v>
-      </c>
-      <c r="H63" s="8">
-        <v>0</v>
-      </c>
-      <c r="I63" s="8">
-        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="E64" s="8">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F64" s="8">
         <v>5</v>
@@ -2979,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="8">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -2999,16 +2999,16 @@
         <v>1</v>
       </c>
       <c r="F65" s="6">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="G65" s="6">
         <v>0</v>
       </c>
       <c r="H65" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I65" s="6">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
